--- a/biology/Botanique/Château_de_Haute-Serre/Château_de_Haute-Serre.xlsx
+++ b/biology/Botanique/Château_de_Haute-Serre/Château_de_Haute-Serre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Haute-Serre</t>
+          <t>Château_de_Haute-Serre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Haute-Serre est situé en France, sur la commune de Cieurac dans le Lot. Il est aujourd'hui un Château viticole et un restaurant gastronomique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Haute-Serre</t>
+          <t>Château_de_Haute-Serre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le château de Haute-Serre compte parmi les plus vieux châteaux viticoles de Cahors. Son vignoble s'étendait sur plus de 1 000 hectares[1] durant l'âge d'or des vins de Cahors pendant le Moyen Âge.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le château de Haute-Serre compte parmi les plus vieux châteaux viticoles de Cahors. Son vignoble s'étendait sur plus de 1 000 hectares durant l'âge d'or des vins de Cahors pendant le Moyen Âge.
 La crise du phylloxéra porta un coup fatal au vignoble du château à la fin du XIXe siècle. Il faudra attendre les années 1970 pour voir à nouveau  de la vigne sur ce causse argilo-calcaire cadurcien, quand Georges Vigouroux, un négociant lotois, racheta le château pour lui rendre sa destination viticole.
 Il est aussi à noter l'ouverture du restaurant "La Table de Haute-Serre" en 2008 dans les chais du château.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Haute-Serre</t>
+          <t>Château_de_Haute-Serre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Le vignoble
-Le vignoble compte actuellement 60 hectares composé majoritairement de malbec et en plus petites proportions de merlot et de tannat. Ces 3 cépages servent à la vinification de vins rouges classés en AOC Cahors. Le vignoble comprend aussi du chardonnay et du sauvignon destiné à la production de vins blancs classés en IGP Côtes du Lot.
-Le vin
-Le château de Haute-Serre propose 4 vins rouges :
+          <t>Le vignoble</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble compte actuellement 60 hectares composé majoritairement de malbec et en plus petites proportions de merlot et de tannat. Ces 3 cépages servent à la vinification de vins rouges classés en AOC Cahors. Le vignoble comprend aussi du chardonnay et du sauvignon destiné à la production de vins blancs classés en IGP Côtes du Lot.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Château_de_Haute-Serre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_de_Haute-Serre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>La vigne</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le vin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le château de Haute-Serre propose 4 vins rouges :
 Lafleur de Haute-Serre : vin rouge, 80 % de malbec
 Château de Haute-Serre - Grand Vin Seigneur : vin rouge, 80 % de malbec, 15 % de merlot, 5 % de tannat
 Géron Dadine de Haute-Serre : vin rouge, 100 % malbec
@@ -565,45 +619,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ch%C3%A2teau_de_Haute-Serre</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_de_Haute-Serre</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>La Table de Haute-Serre</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Table de Haute-Serre est un restaurant gastronomique qui a ouvert en 2008 dans les chais de vinification et d'élevage du château de Haute-Serre. Le Guide Michelin l'a gratifié du BIB Gourmand en 2017 pour sa cuisine orientée vers le terroir du Lot et son bon rapport qualité/prix. 
-Le chef pratique dans ce restaurant la "bistronomie"[2], mélange culinaire entre le bistro et la gastronomie lancé en 1997.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Haute-Serre</t>
+          <t>Château_de_Haute-Serre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,12 +640,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>La Table de Haute-Serre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Table de Haute-Serre est un restaurant gastronomique qui a ouvert en 2008 dans les chais de vinification et d'élevage du château de Haute-Serre. Le Guide Michelin l'a gratifié du BIB Gourmand en 2017 pour sa cuisine orientée vers le terroir du Lot et son bon rapport qualité/prix. 
+Le chef pratique dans ce restaurant la "bistronomie", mélange culinaire entre le bistro et la gastronomie lancé en 1997.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Château_de_Haute-Serre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_de_Haute-Serre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cépage malbec se nomme également par endroits auxerrois. Ce nom serait une déformation du lieu-dit « Haute-Serre »[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cépage malbec se nomme également par endroits auxerrois. Ce nom serait une déformation du lieu-dit « Haute-Serre ».
 La cuvée Géron Dadine porte le nom d'un chanoine qui cultivait les vignes du château au XVIe siècle.
 </t>
         </is>
